--- a/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -482,7 +487,8 @@
           <t>ANGELINE MARY SHAMALA A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>
@@ -511,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S DonimadaguBangarpet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -538,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G G J C KGF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -565,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Adarsha High School RayalamamadinneMulbagal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -592,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Sri Arunodaya High School Muthakapalli CrossSrinivaspur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -619,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S Patna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -646,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S MuthakapallySrinivasapur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -673,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S Doddashivara Malur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -700,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H P S JinkalavaripalliSrinivasapur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -727,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G J C MasthiMalur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -754,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S Medihala</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -781,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Kyalaanur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -808,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Shapur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -835,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Radhakrishna High SchoolHebbani</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -862,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S Alangur CrossMulbagal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -889,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S Madderi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -915,7 +996,8 @@
           <t>LATHA CHRISTINA M</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>
@@ -944,6 +1026,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G J C MasthiMalur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -971,6 +1058,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKaramangalaBangarpet</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -998,6 +1090,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S HebbaniMulbagal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1025,6 +1122,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Nehru Kennady High School ByrakurMulbagal</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1052,6 +1154,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S Beglihosahalli</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1079,6 +1186,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Sri Maruthi High School Mulbagal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1106,6 +1218,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Ramamadhava High School ThornahalliMalur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1132,7 +1249,8 @@
           <t>POOPATHI NAYAGAM D</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>
@@ -1161,6 +1279,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. High SchoolDoddurKGF Range</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1188,6 +1311,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S AvaniMulbagal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1215,6 +1343,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S MasthenallySrinivasapur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1242,6 +1375,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G J C (B) Malur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1266,6 +1404,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S AddagalSrinivasapur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1293,6 +1436,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. Girls Junior College Malur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1320,6 +1468,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>St. Teresa’s G H S RobertsowpetK G F</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1347,6 +1500,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>M V K H S Uthanur Mulbagal</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Kola</t>
         </is>
       </c>
@@ -1374,6 +1532,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Dr. A B H SK G F</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1401,6 +1564,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G J C Boys Malur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1428,6 +1596,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G G J C Malur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1455,6 +1628,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G J C Lakkur Malur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1482,6 +1660,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G J C Masthi Malur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1509,6 +1692,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S Thyavanahalli</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1536,6 +1724,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S Kurugal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1563,6 +1756,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S YeldurSrinivaspur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1590,6 +1788,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G M H P S SomeshwarapalyaMulbagal</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1617,6 +1820,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S Doddashivara Malur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1644,6 +1852,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S ArikunteSrinivaspur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1671,6 +1884,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Harati</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1698,6 +1916,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Jaya Prakash Narayana High School M.AgraharaMulbagal</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1725,6 +1948,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Saraswathi H S KashipuraMulbagal</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1752,6 +1980,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H SKolarSulur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1779,6 +2012,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S DoddanayakanahalliMular</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1806,6 +2044,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya ThathikalluMulbagal</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1831,7 +2074,8 @@
           <t>USHA B M</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>G J C Malur(Girls) Kolar</t>
         </is>
@@ -1860,6 +2104,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S Rajenahalli Malur</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1887,6 +2136,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Govt. Boys Junior College Malur</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Kolar</t>
         </is>
       </c>
@@ -1910,6 +2164,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>Asst. TeacherG H S HasandahalliMalur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Kolar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,6 @@
           <t>ANGELINE MARY SHAMALA A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Kolar</t>
@@ -996,7 +995,6 @@
           <t>LATHA CHRISTINA M</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Kolar</t>
@@ -1249,7 +1247,6 @@
           <t>POOPATHI NAYAGAM D</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>Kolar</t>
@@ -2074,7 +2071,6 @@
           <t>USHA B M</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>G J C Malur(Girls) Kolar</t>

--- a/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-27)_54_4.xlsx
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kola</t>
+          <t>Kolar</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>G J C Malur(Girls) Kolar</t>
+          <t>Kolar</t>
         </is>
       </c>
     </row>
